--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H2">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N2">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O2">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P2">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q2">
-        <v>29.15418118453533</v>
+        <v>39.43470579710044</v>
       </c>
       <c r="R2">
-        <v>262.387630660818</v>
+        <v>354.912352173904</v>
       </c>
       <c r="S2">
-        <v>0.05754716561787886</v>
+        <v>0.0572334536876353</v>
       </c>
       <c r="T2">
-        <v>0.05754716561787884</v>
+        <v>0.05723345368763531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H3">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.082561</v>
       </c>
       <c r="O3">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P3">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q3">
-        <v>11.86828632536156</v>
+        <v>9.986872530046224</v>
       </c>
       <c r="R3">
-        <v>106.814576928254</v>
+        <v>89.88185277041602</v>
       </c>
       <c r="S3">
-        <v>0.02342669939666405</v>
+        <v>0.01449442045729032</v>
       </c>
       <c r="T3">
-        <v>0.02342669939666405</v>
+        <v>0.01449442045729032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H4">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N4">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O4">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P4">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q4">
-        <v>10.16310975777067</v>
+        <v>17.58478912734755</v>
       </c>
       <c r="R4">
-        <v>91.467987819936</v>
+        <v>158.263102146128</v>
       </c>
       <c r="S4">
-        <v>0.0200608673150918</v>
+        <v>0.02552163617766562</v>
       </c>
       <c r="T4">
-        <v>0.0200608673150918</v>
+        <v>0.02552163617766563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H5">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N5">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O5">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P5">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q5">
-        <v>7.530307577537333</v>
+        <v>11.50195024793422</v>
       </c>
       <c r="R5">
-        <v>67.772768197836</v>
+        <v>103.517552231408</v>
       </c>
       <c r="S5">
-        <v>0.01486400371100033</v>
+        <v>0.01669332440869971</v>
       </c>
       <c r="T5">
-        <v>0.01486400371100032</v>
+        <v>0.01669332440869971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H6">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N6">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O6">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P6">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q6">
-        <v>9.299388387928889</v>
+        <v>25.93261531966933</v>
       </c>
       <c r="R6">
-        <v>83.69449549136002</v>
+        <v>233.393537877024</v>
       </c>
       <c r="S6">
-        <v>0.01835597577986489</v>
+        <v>0.03763723116216802</v>
       </c>
       <c r="T6">
-        <v>0.01835597577986489</v>
+        <v>0.03763723116216802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J7">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N7">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O7">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P7">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q7">
-        <v>39.48786848972267</v>
+        <v>63.47459767614755</v>
       </c>
       <c r="R7">
-        <v>355.390816407504</v>
+        <v>571.2713790853279</v>
       </c>
       <c r="S7">
-        <v>0.07794473435873683</v>
+        <v>0.09212368579927867</v>
       </c>
       <c r="T7">
-        <v>0.07794473435873681</v>
+        <v>0.09212368579927867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J8">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.082561</v>
       </c>
       <c r="O8">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P8">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q8">
         <v>16.07499544054578</v>
@@ -948,10 +948,10 @@
         <v>144.674958964912</v>
       </c>
       <c r="S8">
-        <v>0.03173028318196889</v>
+        <v>0.02333040119049331</v>
       </c>
       <c r="T8">
-        <v>0.03173028318196889</v>
+        <v>0.02333040119049331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J9">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N9">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O9">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P9">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q9">
-        <v>13.76541975304533</v>
+        <v>28.30469741098844</v>
       </c>
       <c r="R9">
-        <v>123.888777777408</v>
+        <v>254.742276698896</v>
       </c>
       <c r="S9">
-        <v>0.027171433329375</v>
+        <v>0.04107994609493071</v>
       </c>
       <c r="T9">
-        <v>0.02717143332937499</v>
+        <v>0.04107994609493072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J10">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N10">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O10">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P10">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q10">
-        <v>10.19942194317867</v>
+        <v>18.51368356176178</v>
       </c>
       <c r="R10">
-        <v>91.794797488608</v>
+        <v>166.623152055856</v>
       </c>
       <c r="S10">
-        <v>0.0201325435983115</v>
+        <v>0.02686978460474626</v>
       </c>
       <c r="T10">
-        <v>0.0201325435983115</v>
+        <v>0.02686978460474627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J11">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N11">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O11">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P11">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q11">
-        <v>12.59555270556445</v>
+        <v>41.74146328301867</v>
       </c>
       <c r="R11">
-        <v>113.35997435008</v>
+        <v>375.673169547168</v>
       </c>
       <c r="S11">
-        <v>0.02486224370384052</v>
+        <v>0.060581359930887</v>
       </c>
       <c r="T11">
-        <v>0.02486224370384051</v>
+        <v>0.06058135993088701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H12">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N12">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O12">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P12">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q12">
-        <v>82.10189726945532</v>
+        <v>77.02920841670766</v>
       </c>
       <c r="R12">
-        <v>738.9170754250979</v>
+        <v>693.2628757503689</v>
       </c>
       <c r="S12">
-        <v>0.1620601672810358</v>
+        <v>0.111796133466704</v>
       </c>
       <c r="T12">
-        <v>0.1620601672810357</v>
+        <v>0.111796133466704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H13">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.082561</v>
       </c>
       <c r="O13">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P13">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q13">
-        <v>33.42260989878822</v>
+        <v>19.50771205207234</v>
       </c>
       <c r="R13">
-        <v>300.803489089094</v>
+        <v>175.569408468651</v>
       </c>
       <c r="S13">
-        <v>0.06597257714264212</v>
+        <v>0.02831246516782942</v>
       </c>
       <c r="T13">
-        <v>0.06597257714264212</v>
+        <v>0.02831246516782942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H14">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N14">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O14">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P14">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q14">
-        <v>28.62061492961066</v>
+        <v>34.34899181507033</v>
       </c>
       <c r="R14">
-        <v>257.585534366496</v>
+        <v>309.140926335633</v>
       </c>
       <c r="S14">
-        <v>0.05649396417668905</v>
+        <v>0.04985231644378951</v>
       </c>
       <c r="T14">
-        <v>0.05649396417668904</v>
+        <v>0.04985231644378951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H15">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N15">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O15">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P15">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q15">
-        <v>21.20630777537733</v>
+        <v>22.46716705344033</v>
       </c>
       <c r="R15">
-        <v>190.856769978396</v>
+        <v>202.204503480963</v>
       </c>
       <c r="S15">
-        <v>0.04185893261652245</v>
+        <v>0.03260766218623573</v>
       </c>
       <c r="T15">
-        <v>0.04185893261652245</v>
+        <v>0.03260766218623573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H16">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N16">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O16">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P16">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q16">
-        <v>26.18826525299556</v>
+        <v>50.655096567146</v>
       </c>
       <c r="R16">
-        <v>235.69438727696</v>
+        <v>455.895869104314</v>
       </c>
       <c r="S16">
-        <v>0.05169277189504773</v>
+        <v>0.07351813750900646</v>
       </c>
       <c r="T16">
-        <v>0.05169277189504771</v>
+        <v>0.07351813750900646</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H17">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N17">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O17">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P17">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q17">
-        <v>11.09544952158</v>
+        <v>16.26323179223622</v>
       </c>
       <c r="R17">
-        <v>99.85904569422</v>
+        <v>146.369086130126</v>
       </c>
       <c r="S17">
-        <v>0.02190120405651708</v>
+        <v>0.02360359751081673</v>
       </c>
       <c r="T17">
-        <v>0.02190120405651707</v>
+        <v>0.02360359751081673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H18">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.082561</v>
       </c>
       <c r="O18">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P18">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q18">
-        <v>4.51681256274</v>
+        <v>4.118677179217111</v>
       </c>
       <c r="R18">
-        <v>40.65131306466</v>
+        <v>37.06809461295401</v>
       </c>
       <c r="S18">
-        <v>0.008915694080641608</v>
+        <v>0.00597763099346808</v>
       </c>
       <c r="T18">
-        <v>0.008915694080641608</v>
+        <v>0.00597763099346808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H19">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N19">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O19">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P19">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q19">
-        <v>3.86785931616</v>
+        <v>7.252127176175778</v>
       </c>
       <c r="R19">
-        <v>34.81073384544001</v>
+        <v>65.269144585582</v>
       </c>
       <c r="S19">
-        <v>0.00763473133561315</v>
+        <v>0.0105253551785092</v>
       </c>
       <c r="T19">
-        <v>0.007634731335613148</v>
+        <v>0.0105253551785092</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H20">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N20">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O20">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P20">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q20">
-        <v>2.86587186516</v>
+        <v>4.743509027489112</v>
       </c>
       <c r="R20">
-        <v>25.79284678644</v>
+        <v>42.69158124740201</v>
       </c>
       <c r="S20">
-        <v>0.00565691767572139</v>
+        <v>0.00688447900787027</v>
       </c>
       <c r="T20">
-        <v>0.005656917675721389</v>
+        <v>0.00688447900787027</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H21">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N21">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O21">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P21">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q21">
-        <v>3.5391456816</v>
+        <v>10.69484671935067</v>
       </c>
       <c r="R21">
-        <v>31.8523111344</v>
+        <v>96.25362047415601</v>
       </c>
       <c r="S21">
-        <v>0.006985886566173582</v>
+        <v>0.01552193688366052</v>
       </c>
       <c r="T21">
-        <v>0.00698588656617358</v>
+        <v>0.01552193688366052</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H22">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.886429</v>
+        <v>1.424886333333333</v>
       </c>
       <c r="N22">
-        <v>2.659287</v>
+        <v>4.274659</v>
       </c>
       <c r="O22">
-        <v>0.4286416829438365</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="P22">
-        <v>0.4286416829438364</v>
+        <v>0.3775790263072122</v>
       </c>
       <c r="Q22">
-        <v>55.31634272034367</v>
+        <v>63.95585398515511</v>
       </c>
       <c r="R22">
-        <v>497.8470844830929</v>
+        <v>575.602685866396</v>
       </c>
       <c r="S22">
-        <v>0.109188411629668</v>
+        <v>0.09282215584277755</v>
       </c>
       <c r="T22">
-        <v>0.1091884116296679</v>
+        <v>0.09282215584277755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H23">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.082561</v>
       </c>
       <c r="O23">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="P23">
-        <v>0.1744944298713763</v>
+        <v>0.09562220712767076</v>
       </c>
       <c r="Q23">
-        <v>22.51856053584211</v>
+        <v>16.19687400703156</v>
       </c>
       <c r="R23">
-        <v>202.667044822579</v>
+        <v>145.771866063284</v>
       </c>
       <c r="S23">
-        <v>0.04444917606945958</v>
+        <v>0.02350728931858965</v>
       </c>
       <c r="T23">
-        <v>0.04444917606945958</v>
+        <v>0.02350728931858965</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H24">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.309008</v>
+        <v>0.6353876666666666</v>
       </c>
       <c r="N24">
-        <v>0.9270240000000001</v>
+        <v>1.906163</v>
       </c>
       <c r="O24">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="P24">
-        <v>0.1494239348702592</v>
+        <v>0.1683706629050024</v>
       </c>
       <c r="Q24">
-        <v>19.28320534563733</v>
+        <v>28.51930001899688</v>
       </c>
       <c r="R24">
-        <v>173.548848110736</v>
+        <v>256.673700170972</v>
       </c>
       <c r="S24">
-        <v>0.03806293871349024</v>
+        <v>0.04139140901010732</v>
       </c>
       <c r="T24">
-        <v>0.03806293871349023</v>
+        <v>0.04139140901010733</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H25">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.228958</v>
+        <v>0.4155976666666667</v>
       </c>
       <c r="N25">
-        <v>0.686874</v>
+        <v>1.246793</v>
       </c>
       <c r="O25">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="P25">
-        <v>0.1107149500337364</v>
+        <v>0.110128758094306</v>
       </c>
       <c r="Q25">
-        <v>14.28779879332067</v>
+        <v>18.65405195074356</v>
       </c>
       <c r="R25">
-        <v>128.590189139886</v>
+        <v>167.886467556692</v>
       </c>
       <c r="S25">
-        <v>0.02820255243218071</v>
+        <v>0.02707350788675404</v>
       </c>
       <c r="T25">
-        <v>0.02820255243218071</v>
+        <v>0.02707350788675405</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H26">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2827466666666667</v>
+        <v>0.937018</v>
       </c>
       <c r="N26">
-        <v>0.8482400000000001</v>
+        <v>2.811054</v>
       </c>
       <c r="O26">
-        <v>0.1367250022807918</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="P26">
-        <v>0.1367250022807917</v>
+        <v>0.2482993455658087</v>
       </c>
       <c r="Q26">
-        <v>17.64440413881778</v>
+        <v>42.05794173719733</v>
       </c>
       <c r="R26">
-        <v>158.79963724936</v>
+        <v>378.521475634776</v>
       </c>
       <c r="S26">
-        <v>0.03482812433586505</v>
+        <v>0.06104068008008667</v>
       </c>
       <c r="T26">
-        <v>0.03482812433586504</v>
+        <v>0.06104068008008667</v>
       </c>
     </row>
   </sheetData>
